--- a/biology/Botanique/Société_royale_forestière_de_Belgique/Société_royale_forestière_de_Belgique.xlsx
+++ b/biology/Botanique/Société_royale_forestière_de_Belgique/Société_royale_forestière_de_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_royale_foresti%C3%A8re_de_Belgique</t>
+          <t>Société_royale_forestière_de_Belgique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société royale forestière de Belgique (SRFB) est une association sans but lucratif, créée en 1893. En tant que centre d'animation et de compétence, la SRFB est au service de la forêt et des forestiers.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_royale_foresti%C3%A8re_de_Belgique</t>
+          <t>Société_royale_forestière_de_Belgique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Ses Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société royale forestière de Belgique a pour objet de faire connaître et de valoriser la forêt et les forestiers. Elle s'engage à promouvoir une sylviculture de qualité et forme ses membres aux applications concrètes de la science sylvicole. Son action couvre tous les aspects relevant de la technique forestière et de sa vulgarisation. Dans cet ordre d'idées, la SRFB porte une attention particulière aux thèmes tels que le changement climatique, le rôle de la forêt au niveau des puits de carbone, l'émergence du bois-énergie, mais aussi les modifications des fonctions environnementales et sociétales demandées par la société.
 La SRFB a également pour vocation d'être le lieu de rencontre entre les administrations forestières, les milieux académiques, la filière bois et les propriétaires privés et publics afin de favoriser les échanges de points de vue, les synergies, les partenariats, ...
